--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3680371.916996029</v>
+        <v>3678119.837284821</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>4.014908381398304</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.1793357460773</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3507783535275</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6883373826021</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>71.98153210089535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727819</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606662</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>54.41653174045868</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>68.85005436466994</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.949385892745</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.5844008505283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>183.055950037019</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.3178054178669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
-        <v>12.35680705404102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>55.52079624060384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>66.25628701154713</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3910,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.8396132741332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.546535481797</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.584018541385</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1988.146375545919</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415546</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.280305378585</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.289620173002</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150252</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979147</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>971.281412372397</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>585.4931597741527</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>578.5476590249492</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>163.4752088699457</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1767.918581386758</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2149.810879820877</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>175.8744207939072</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939072</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5832,19 +5832,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.279733667159</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,31 +6242,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,19 +6546,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
         <v>343.0994656851783</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797045</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,16 +7731,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.88259428919233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.000252501566507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>42.65370535201816</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440192</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>40.23897475306335</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>15.0095493070184</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055059</v>
@@ -26347,13 +26347,13 @@
         <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.0322517935</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179355</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179357</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26448,7 +26448,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179354</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747043.0719410616</v>
+        <v>-747043.0719410615</v>
       </c>
       <c r="C6" t="n">
-        <v>581701.6737865303</v>
+        <v>581701.6737865309</v>
       </c>
       <c r="D6" t="n">
-        <v>581701.6737865309</v>
+        <v>581701.6737865307</v>
       </c>
       <c r="E6" t="n">
-        <v>329087.2458224501</v>
+        <v>329052.5078970142</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.7076298052</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.7076298055</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.7076298053</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.707629805</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="J6" t="n">
-        <v>436968.5052325282</v>
+        <v>436933.7673070921</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.7076298053</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.7076298053</v>
+        <v>654464.9697043697</v>
       </c>
       <c r="M6" t="n">
-        <v>569444.6796942936</v>
+        <v>569409.941768858</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.7076298054</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.7076298052</v>
+        <v>654464.9697043694</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.7076298054</v>
+        <v>654464.9697043695</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>323.7373500887366</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>63.35887703550969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>240.9947042380808</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6421064805524</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>214.5414662356957</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>240.1912326468618</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>120.918970966772</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>268.6704608606964</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>209.7242506524599</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>639.4703354763103</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>528.6300513467554</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,28 +33023,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>479.6444630806909</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>658.2124561388958</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067242</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>134.6960534463662</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>508.128623392977</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36671,28 +36671,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>337.5104291586726</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>526.8707440555626</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318326</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
